--- a/test/scoring.xlsx
+++ b/test/scoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ottavia\Documents\GitHub\test-organizzioni-fisppa\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A868CFA-8694-4DDE-8995-5EF6F770CCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3747C3A4-1512-48AA-BD61-B207D46882D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41850" yWindow="240" windowWidth="15345" windowHeight="12915" xr2:uid="{6641CB12-515D-46C2-9D9D-360E8AEE2E17}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6641CB12-515D-46C2-9D9D-360E8AEE2E17}"/>
   </bookViews>
   <sheets>
     <sheet name="16gennaio" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -92,13 +99,96 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -109,6 +199,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{677710DF-E5B1-4E57-AED8-635EB0DDC423}" name="Tabella1" displayName="Tabella1" ref="A1:B20" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:B20" xr:uid="{677710DF-E5B1-4E57-AED8-635EB0DDC423}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C2440035-12F2-421D-89DB-F838C1249E18}" name="Domanda" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{126678C5-1456-4747-B2FF-37E52A54A0EC}" name="Risposta corretta" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,172 +532,179 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>